--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3917821.24295115</v>
+        <v>3922760.505800182</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75.30729779173546</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>75.30729779173555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>189.5968436493441</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>124.5928256234905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>221.0500704066363</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.60408762095435</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.983388191319154</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701357</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>67.84064279592573</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>130.7822629831785</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784701</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>210.9685212521345</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385033</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>55.21533678566918</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>4.181425369522882</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4312,16 +4312,16 @@
         <v>1112.426648284105</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.426648284105</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1112.426648284105</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>701.4407434944976</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>283.4769353926845</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,28 +4494,28 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
         <v>536.6170209242687</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,22 +4591,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2340.091574849259</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1987.322919579145</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
         <v>1613.857161318065</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321495</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198137</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374206</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,7 +4828,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
         <v>2636.076575092838</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.8610847926847</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>630.9249018647778</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>480.808262452442</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5095496229244</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,25 +5503,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515098</v>
@@ -5530,7 +5530,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5539,7 +5539,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,7 +5740,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
         <v>1808.163466324677</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>420.034083581939</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>420.034083581939</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
         <v>1247.466478653857</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6934,49 +6934,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7505,7 +7505,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>78.59331985064344</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>121.3553803406495</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>75.26883114644289</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>90.20571123726207</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>214.4032279825719</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>141.3262313106235</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2874683808268</v>
       </c>
     </row>
     <row r="41">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147619</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.760514762</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147613</v>
@@ -26340,19 +26340,19 @@
         <v>723403.7605147613</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="L2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147616</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.760514761</v>
       </c>
       <c r="P2" t="n">
         <v>723403.7605147611</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007449</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007469</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007403</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007533</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941266</v>
+        <v>-61280.36886941249</v>
       </c>
       <c r="C6" t="n">
-        <v>528687.510345132</v>
+        <v>528687.5103451324</v>
       </c>
       <c r="D6" t="n">
         <v>528687.5103451322</v>
       </c>
       <c r="E6" t="n">
-        <v>97365.07517341967</v>
+        <v>98242.20730716914</v>
       </c>
       <c r="F6" t="n">
-        <v>622525.1116503159</v>
+        <v>623402.2437840658</v>
       </c>
       <c r="G6" t="n">
-        <v>622525.1116503158</v>
+        <v>623402.2437840654</v>
       </c>
       <c r="H6" t="n">
-        <v>622525.1116503158</v>
+        <v>623402.2437840656</v>
       </c>
       <c r="I6" t="n">
-        <v>622525.1116503156</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="J6" t="n">
-        <v>446101.8924577227</v>
+        <v>446979.0245914724</v>
       </c>
       <c r="K6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.2437840648</v>
       </c>
       <c r="L6" t="n">
-        <v>622525.1116503155</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="M6" t="n">
-        <v>487724.0964164786</v>
+        <v>488601.2285502276</v>
       </c>
       <c r="N6" t="n">
-        <v>622525.1116503158</v>
+        <v>623402.2437840652</v>
       </c>
       <c r="O6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.2437840648</v>
       </c>
       <c r="P6" t="n">
-        <v>622525.1116503153</v>
+        <v>623402.2437840649</v>
       </c>
     </row>
   </sheetData>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545551</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>279.3757438289475</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>248.6154749726216</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>35.43826180874018</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>203.1594328466444</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>148.6810302718328</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.7057146380966</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>86.9383544042894</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>168.4323246176523</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
